--- a/config/data_params.xlsx
+++ b/config/data_params.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21525" windowHeight="9720" activeTab="1"/>
+    <workbookView windowWidth="25260" windowHeight="11820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="logindata" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
     <t>id_user</t>
   </si>
   <si>
-    <t xml:space="preserve">id_company </t>
+    <t>id_company</t>
   </si>
   <si>
     <t>20190826162020</t>
@@ -114,7 +114,7 @@
     <t>152553170441131776</t>
   </si>
   <si>
-    <t>150519369415526246</t>
+    <t>15051936941552624</t>
   </si>
 </sst>
 </file>
@@ -122,10 +122,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -150,6 +150,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -157,8 +165,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,109 +265,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,187 +289,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,17 +492,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,8 +521,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,34 +575,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,10 +588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,130 +603,130 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1091,7 +1091,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1249,16 +1249,16 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="34.625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="22.125" customWidth="1"/>
-    <col min="5" max="5" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/config/data_params.xlsx
+++ b/config/data_params.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25260" windowHeight="11820" activeTab="1"/>
+    <workbookView windowWidth="22860" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="logindata" sheetId="1" r:id="rId1"/>
@@ -42,28 +42,28 @@
     <t>device_name</t>
   </si>
   <si>
+    <t>device_brand</t>
+  </si>
+  <si>
+    <t>device_product</t>
+  </si>
+  <si>
+    <t>net_type</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
     <t>signature</t>
   </si>
   <si>
-    <t>device_brand</t>
-  </si>
-  <si>
-    <t>device_product</t>
-  </si>
-  <si>
-    <t>net_type</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>03f37779cd022aa06f87eb92ad38ae3f</t>
   </si>
   <si>
-    <t>20190813145907</t>
+    <t>20190926103818</t>
   </si>
   <si>
     <t>2.8.5(280)</t>
@@ -84,9 +84,6 @@
     <t>iPhone</t>
   </si>
   <si>
-    <t>f4d51c632f</t>
-  </si>
-  <si>
     <t>Apple</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>a1234567</t>
+  </si>
+  <si>
+    <t>1e26ef9249</t>
   </si>
   <si>
     <t>id_user</t>
@@ -122,9 +122,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -143,10 +143,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,14 +183,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -175,106 +274,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,12 +289,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -302,174 +470,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,13 +492,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,23 +525,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,6 +555,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -571,15 +580,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -588,10 +588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,133 +600,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1090,8 +1090,8 @@
   <sheetPr/>
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1103,10 +1103,9 @@
     <col min="6" max="6" width="16.125" customWidth="1"/>
     <col min="7" max="7" width="22.25" customWidth="1"/>
     <col min="8" max="8" width="17.625" customWidth="1"/>
-    <col min="9" max="9" width="16.75" customWidth="1"/>
-    <col min="10" max="10" width="20.375" customWidth="1"/>
-    <col min="11" max="11" width="21.25" customWidth="1"/>
-    <col min="13" max="13" width="16.875" customWidth="1"/>
+    <col min="9" max="9" width="20.375" customWidth="1"/>
+    <col min="10" max="10" width="21.25" customWidth="1"/>
+    <col min="12" max="12" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1182,22 +1181,22 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
         <v>25</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1226,15 +1225,15 @@
         <v>22</v>
       </c>
       <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1248,7 +1247,7 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1269,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>27</v>
